--- a/設計/機能一覧/機能一覧ver1.1.xlsx
+++ b/設計/機能一覧/機能一覧ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/project_abroad/設計/機能一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominator/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FAB46E-E9ED-B54F-9929-3E1014383B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD49DD5-C5D1-5845-B4D4-DE15DEFF397A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="289">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -556,10 +556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F1-4-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rev 1.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,10 +738,6 @@
   </si>
   <si>
     <t>F1-3-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-5-3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1174,13 +1166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>講座の申し込みの取り消しを行う</t>
-    <rPh sb="0" eb="1">
-      <t>コウz</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>講座のソートを行う</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1428,14 +1413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F1-8-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1-8-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宮田</t>
     <rPh sb="0" eb="2">
       <t>ミヤt</t>
@@ -1663,13 +1640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通知の送信イメージを表示する</t>
-    <rPh sb="0" eb="1">
-      <t>ツウt</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プラン追加</t>
     <rPh sb="0" eb="2">
       <t>セッテ</t>
@@ -1729,13 +1699,6 @@
     <t>学生ユーザー詳細情報表示</t>
     <rPh sb="0" eb="2">
       <t>ガクセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生ユーザーが学習記録表示</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1971,6 +1934,102 @@
     <t>渡航留学先のプランの追加を行う(留学先国名、コース名、期間、参考金額、備考)</t>
     <rPh sb="0" eb="2">
       <t>セッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-2-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-2-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-2-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-3-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-5-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-6-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-6-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-7-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生ユーザー学習記録表示</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1-4-2</t>
+  </si>
+  <si>
+    <t>通知の送信先、講座名、送信日時を履歴として登録し、表示する</t>
+  </si>
+  <si>
+    <t>講座の申し込みの取り消しを行う(管理者のメールアドレスにキャンセル理由を送信する)</t>
+    <rPh sb="0" eb="1">
+      <t>コウz</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1982,7 +2041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2104,6 +2163,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2312,7 +2379,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2433,6 +2500,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2514,35 +2596,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2571,74 +2704,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3393,16 +3466,16 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="73" t="s">
+      <c r="Y3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="78">
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="83">
         <v>43732</v>
       </c>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="74"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="79"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="19"/>
     </row>
@@ -3503,7 +3576,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
@@ -3571,40 +3644,40 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="75" t="s">
+      <c r="Y8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="75" t="s">
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="75" t="s">
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="77"/>
+      <c r="AD8" s="82"/>
       <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="82"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="87"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
@@ -3612,40 +3685,40 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="119" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="125" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD9" s="126"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD9" s="101"/>
       <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="64"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="69"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -3653,32 +3726,32 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="128"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="103"/>
       <c r="AF10" s="19"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -3686,12 +3759,12 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="130"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="105"/>
       <c r="AF11" s="19"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -3910,18 +3983,18 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="18"/>
@@ -3946,16 +4019,16 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="18"/>
@@ -3980,16 +4053,16 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -4220,119 +4293,119 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="70">
+      <c r="B27" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="75">
         <v>43732</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="77"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="82"/>
       <c r="AC27" s="29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AD27" s="27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AE27" s="16"/>
       <c r="AF27" s="19"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="89">
+      <c r="B28" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="106">
         <v>43738</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="77"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="82"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AE28" s="16"/>
       <c r="AF28" s="19"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="77"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="82"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="16"/>
@@ -4886,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1E1009-A49B-6142-98B9-062C1FA10EE1}">
   <dimension ref="B1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="C10" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -4904,90 +4977,90 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="D2" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="100"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="101"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="D4" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="D5" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="D6" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="118">
+      <c r="I6" s="60">
         <v>43738</v>
       </c>
     </row>
@@ -5012,595 +5085,627 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="104" t="s">
-        <v>186</v>
+      <c r="B10" s="126" t="s">
+        <v>183</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+        <v>57</v>
+      </c>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="104"/>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+    </row>
+    <row r="12" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B12" s="126"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-    </row>
-    <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="104"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="38" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
+        <v>251</v>
+      </c>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="104"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="1"/>
       <c r="E13" s="36"/>
       <c r="F13" s="39"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="90"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="104"/>
-      <c r="C14" s="106"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="1"/>
       <c r="E14" s="36"/>
       <c r="F14" s="39"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="104"/>
-      <c r="C15" s="106"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+    </row>
+    <row r="16" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B16" s="126"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+    </row>
+    <row r="17" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B17" s="126"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
-    </row>
-    <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="104"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="104"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="39"/>
       <c r="G17" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H17" s="112"/>
-      <c r="I17" s="113"/>
+        <v>253</v>
+      </c>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B18" s="104"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="39" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
+        <v>215</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="104"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="115" t="s">
-        <v>237</v>
+      <c r="B19" s="126"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="39" t="s">
+        <v>267</v>
+      </c>
       <c r="G19" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113"/>
+        <v>254</v>
+      </c>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B20" s="104"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="36" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="E20" s="36"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="39" t="s">
+        <v>268</v>
+      </c>
       <c r="G20" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B21" s="104"/>
-      <c r="C21" s="107"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="39" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
+        <v>55</v>
+      </c>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B22" s="104"/>
-      <c r="C22" s="108" t="s">
-        <v>221</v>
+      <c r="B22" s="126"/>
+      <c r="C22" s="107" t="s">
+        <v>216</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+        <v>260</v>
+      </c>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B23" s="104"/>
-      <c r="C23" s="111"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="39"/>
+        <v>217</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="39" t="s">
+        <v>182</v>
+      </c>
       <c r="G23" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
+        <v>255</v>
+      </c>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B24" s="104"/>
-      <c r="C24" s="111"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>269</v>
+      </c>
       <c r="G24" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="113"/>
+        <v>256</v>
+      </c>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B25" s="104"/>
-      <c r="C25" s="111"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E25" s="36"/>
-      <c r="F25" s="117" t="s">
-        <v>185</v>
+      <c r="F25" s="59" t="s">
+        <v>270</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
+        <v>184</v>
+      </c>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
     </row>
     <row r="26" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B26" s="104"/>
-      <c r="C26" s="111"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="43" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
+        <v>258</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B27" s="104"/>
-      <c r="C27" s="111"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="43" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="114"/>
+        <v>259</v>
+      </c>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B28" s="104"/>
-      <c r="C28" s="111"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="43" t="s">
+        <v>273</v>
+      </c>
       <c r="G28" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
+        <v>235</v>
+      </c>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B29" s="104"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="36" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E29" s="36"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="43" t="s">
+        <v>276</v>
+      </c>
       <c r="G29" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
+        <v>261</v>
+      </c>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B30" s="104"/>
-      <c r="C30" s="111"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E30" s="36"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="43" t="s">
+        <v>277</v>
+      </c>
       <c r="G30" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="H30" s="112"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="114"/>
+        <v>262</v>
+      </c>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B31" s="104"/>
-      <c r="C31" s="111"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" s="36"/>
-      <c r="F31" s="117" t="s">
-        <v>36</v>
+      <c r="F31" s="59" t="s">
+        <v>278</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
+        <v>69</v>
+      </c>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B32" s="104"/>
-      <c r="C32" s="111"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E32" s="36"/>
-      <c r="F32" s="117"/>
+      <c r="F32" s="59" t="s">
+        <v>279</v>
+      </c>
       <c r="G32" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
+        <v>239</v>
+      </c>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B33" s="104"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="109"/>
       <c r="D33" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="43" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="G33" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+    </row>
+    <row r="34" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B34" s="126"/>
+      <c r="C34" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-    </row>
-    <row r="34" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B34" s="104"/>
-      <c r="C34" s="90" t="s">
-        <v>64</v>
-      </c>
       <c r="D34" s="36" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
+        <v>218</v>
+      </c>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B35" s="104"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="36" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E35" s="36"/>
-      <c r="F35" s="43"/>
+      <c r="F35" s="43" t="s">
+        <v>33</v>
+      </c>
       <c r="G35" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
+        <v>221</v>
+      </c>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
     </row>
     <row r="36" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B36" s="104"/>
-      <c r="C36" s="90"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="36" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E36" s="36"/>
-      <c r="F36" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="113"/>
+      <c r="F36" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36" s="119"/>
+      <c r="I36" s="120"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="104"/>
-      <c r="C37" s="90"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="42" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="F37" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="G37" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
+        <v>264</v>
+      </c>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="2:10" ht="19">
-      <c r="B38" s="104"/>
-      <c r="C38" s="90" t="s">
-        <v>122</v>
+      <c r="B38" s="126"/>
+      <c r="C38" s="118" t="s">
+        <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
+        <v>126</v>
+      </c>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="104"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="90"/>
+        <v>131</v>
+      </c>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="104"/>
-      <c r="C40" s="90" t="s">
-        <v>73</v>
+      <c r="B40" s="126"/>
+      <c r="C40" s="118" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="36" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
+        <v>73</v>
+      </c>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="104"/>
-      <c r="C41" s="90"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
+        <v>265</v>
+      </c>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="104"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="F42" s="36" t="s">
+        <v>282</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H42" s="98"/>
-      <c r="I42" s="90"/>
+        <v>225</v>
+      </c>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="104"/>
-      <c r="C43" s="90"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36" t="s">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
+        <v>226</v>
+      </c>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="104"/>
-      <c r="C44" s="90" t="s">
-        <v>248</v>
+      <c r="B44" s="126"/>
+      <c r="C44" s="118" t="s">
+        <v>241</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="1" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
+        <v>242</v>
+      </c>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="104"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G45" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H45" s="98"/>
-      <c r="I45" s="90"/>
+        <v>245</v>
+      </c>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="104"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="1" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="90"/>
+        <v>243</v>
+      </c>
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="104"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="36" t="s">
+        <v>284</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
+        <v>247</v>
+      </c>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
       <c r="J47" s="54"/>
     </row>
     <row r="56" spans="2:10" ht="27">
@@ -5731,6 +5836,9 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="B10:B47"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="C40:C43"/>
@@ -5745,6 +5853,8 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="C11:C21"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -5760,17 +5870,12 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C22:C33"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C22:C33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5783,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543C61E-955B-0B4C-B3DD-2FF9F318F9A2}">
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I18"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -5801,88 +5906,88 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="121" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="D2" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="100"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="101"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="D4" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="D5" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="D6" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
@@ -5909,664 +6014,664 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="108" t="s">
-        <v>45</v>
+      <c r="B10" s="107" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+        <v>84</v>
+      </c>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="111"/>
-      <c r="C11" s="90" t="s">
-        <v>79</v>
+      <c r="B11" s="108"/>
+      <c r="C11" s="118" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
+        <v>88</v>
+      </c>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="111"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="90"/>
+        <v>89</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="111"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+        <v>87</v>
+      </c>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="111"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
+        <v>91</v>
+      </c>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="111"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+    </row>
+    <row r="16" spans="2:9" ht="23.25" customHeight="1">
+      <c r="B16" s="108"/>
+      <c r="C16" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="111"/>
-      <c r="C16" s="108" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
+        <v>101</v>
+      </c>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="111"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="109"/>
       <c r="D17" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
+        <v>102</v>
+      </c>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B18" s="111"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
+        <v>214</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="111"/>
-      <c r="C19" s="108" t="s">
-        <v>207</v>
+      <c r="B19" s="108"/>
+      <c r="C19" s="107" t="s">
+        <v>202</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113"/>
+        <v>194</v>
+      </c>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
+        <v>199</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B21" s="111"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="109"/>
       <c r="D21" s="46" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
+        <v>200</v>
+      </c>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B22" s="111"/>
-      <c r="C22" s="105" t="s">
-        <v>110</v>
+      <c r="B22" s="108"/>
+      <c r="C22" s="127" t="s">
+        <v>108</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B23" s="111"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+    </row>
+    <row r="24" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B24" s="108"/>
+      <c r="C24" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>116</v>
-      </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-    </row>
-    <row r="24" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B24" s="111"/>
-      <c r="C24" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>118</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+    </row>
+    <row r="25" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B25" s="108"/>
+      <c r="C25" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>119</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B25" s="111"/>
-      <c r="C25" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>121</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
+        <v>130</v>
+      </c>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B26" s="111"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
+        <v>132</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="2:10" ht="19">
-      <c r="B27" s="111"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="98"/>
-      <c r="I27" s="90"/>
+        <v>125</v>
+      </c>
+      <c r="H27" s="117"/>
+      <c r="I27" s="118"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="111"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="98"/>
-      <c r="I28" s="90"/>
+        <v>124</v>
+      </c>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
     </row>
     <row r="29" spans="2:10" ht="19">
-      <c r="B29" s="111"/>
-      <c r="C29" s="110" t="s">
-        <v>59</v>
+      <c r="B29" s="108"/>
+      <c r="C29" s="130" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G29" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="117"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="2:10" ht="19">
+      <c r="B30" s="108"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H29" s="98"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="54"/>
-    </row>
-    <row r="30" spans="2:10" ht="19">
-      <c r="B30" s="111"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G30" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+    </row>
+    <row r="31" spans="2:10" ht="19">
+      <c r="B31" s="108"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="H30" s="98"/>
-      <c r="I30" s="90"/>
-    </row>
-    <row r="31" spans="2:10" ht="19">
-      <c r="B31" s="111"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="98"/>
-      <c r="I31" s="90"/>
+        <v>140</v>
+      </c>
+      <c r="H31" s="117"/>
+      <c r="I31" s="118"/>
     </row>
     <row r="32" spans="2:10" ht="19">
-      <c r="B32" s="111"/>
-      <c r="C32" s="110"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="130"/>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="98"/>
-      <c r="I32" s="90"/>
+        <v>141</v>
+      </c>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
     </row>
     <row r="33" spans="2:11" ht="19">
-      <c r="B33" s="111"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="98"/>
-      <c r="I33" s="90"/>
+        <v>193</v>
+      </c>
+      <c r="H33" s="117"/>
+      <c r="I33" s="118"/>
     </row>
     <row r="34" spans="2:11" ht="19">
-      <c r="B34" s="111"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="98"/>
-      <c r="I34" s="90"/>
+        <v>288</v>
+      </c>
+      <c r="H34" s="117"/>
+      <c r="I34" s="118"/>
     </row>
     <row r="35" spans="2:11" ht="19">
-      <c r="B35" s="111"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="130"/>
       <c r="D35" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="90"/>
+        <v>212</v>
+      </c>
+      <c r="H35" s="117"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="2:11" ht="19">
-      <c r="B36" s="111"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G36" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="117"/>
+      <c r="I36" s="118"/>
+    </row>
+    <row r="37" spans="2:11" ht="19">
+      <c r="B37" s="108"/>
+      <c r="C37" s="126" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="90"/>
-    </row>
-    <row r="37" spans="2:11" ht="19">
-      <c r="B37" s="111"/>
-      <c r="C37" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="90"/>
+        <v>144</v>
+      </c>
+      <c r="H37" s="117"/>
+      <c r="I37" s="118"/>
     </row>
     <row r="38" spans="2:11" ht="19">
-      <c r="B38" s="111"/>
-      <c r="C38" s="104"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="90"/>
+        <v>151</v>
+      </c>
+      <c r="H38" s="117"/>
+      <c r="I38" s="118"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="111"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="90"/>
+        <v>152</v>
+      </c>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="111"/>
-      <c r="C40" s="104"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="98"/>
-      <c r="I40" s="90"/>
+        <v>153</v>
+      </c>
+      <c r="H40" s="117"/>
+      <c r="I40" s="118"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="111"/>
-      <c r="C41" s="104"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="98"/>
-      <c r="I41" s="90"/>
+        <v>154</v>
+      </c>
+      <c r="H41" s="117"/>
+      <c r="I41" s="118"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="111"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="98"/>
-      <c r="I42" s="90"/>
+        <v>155</v>
+      </c>
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="111"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="90"/>
+        <v>190</v>
+      </c>
+      <c r="H43" s="117"/>
+      <c r="I43" s="118"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="111"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="90"/>
+        <v>157</v>
+      </c>
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
       <c r="K44" s="55"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="111"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="H45" s="98"/>
-      <c r="I45" s="90"/>
+        <v>205</v>
+      </c>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
       <c r="K45" s="55"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="111"/>
-      <c r="C46" s="104"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="90"/>
+        <v>209</v>
+      </c>
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
       <c r="K46" s="55"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="111"/>
-      <c r="C47" s="104"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H47" s="98"/>
-      <c r="I47" s="90"/>
+        <v>161</v>
+      </c>
+      <c r="H47" s="117"/>
+      <c r="I47" s="118"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="109"/>
-      <c r="C48" s="104"/>
+      <c r="C48" s="126"/>
       <c r="D48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E48" s="36"/>
       <c r="F48" s="36" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H48" s="98"/>
-      <c r="I48" s="90"/>
+        <v>160</v>
+      </c>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/設計/機能一覧/機能一覧ver1.1.xlsx
+++ b/設計/機能一覧/機能一覧ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominator/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/project_abroad/設計/機能一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD49DD5-C5D1-5845-B4D4-DE15DEFF397A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202641AC-7089-344B-A672-E73F5BBF3243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -1833,13 +1833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者ユーザーの登録を行う(教職員番号、学校名、氏名、パスワード、担当国）</t>
-    <rPh sb="0" eb="3">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者ユーザーの一覧を表示する(教職員番号、学校名、姓名、担当国名）</t>
     <rPh sb="0" eb="1">
       <t>ユz</t>
@@ -2030,6 +2023,13 @@
     <t>講座の申し込みの取り消しを行う(管理者のメールアドレスにキャンセル理由を送信する)</t>
     <rPh sb="0" eb="1">
       <t>コウz</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ユーザーの登録を行う(教職員番号、学校名、氏名、パスワード、メールアドレス、担当国）</t>
+    <rPh sb="0" eb="3">
+      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2515,6 +2515,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2560,15 +2578,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2632,8 +2641,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2644,74 +2704,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3466,16 +3466,16 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="78" t="s">
+      <c r="Y3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="83">
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86">
         <v>43732</v>
       </c>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="79"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="85"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="19"/>
     </row>
@@ -3644,18 +3644,18 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="80" t="s">
+      <c r="Y8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="80" t="s">
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="80" t="s">
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="82"/>
+      <c r="AD8" s="65"/>
       <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -3666,18 +3666,18 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
@@ -3685,40 +3685,40 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="94" t="s">
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="100" t="s">
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" s="101"/>
+      <c r="AD9" s="104"/>
       <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="67" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="69"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -3726,32 +3726,32 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="103"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="106"/>
       <c r="AF10" s="19"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -3759,12 +3759,12 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="105"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="108"/>
       <c r="AF11" s="19"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -3983,18 +3983,18 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="18"/>
@@ -4019,16 +4019,16 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="18"/>
@@ -4053,16 +4053,16 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -4293,39 +4293,39 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="75">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="81">
         <v>43732</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="80" t="s">
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="82"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="65"/>
       <c r="AC27" s="29" t="s">
         <v>248</v>
       </c>
@@ -4337,39 +4337,39 @@
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="106">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66">
         <v>43738</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="80" t="s">
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="82"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="65"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="27" t="s">
         <v>248</v>
@@ -4379,33 +4379,33 @@
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="82"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="65"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="16"/>
@@ -4923,12 +4923,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:Q11"/>
     <mergeCell ref="L18:U20"/>
@@ -4944,6 +4938,12 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4959,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1E1009-A49B-6142-98B9-062C1FA10EE1}">
   <dimension ref="B1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:G47"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="137" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -4977,68 +4977,68 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="122"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="123"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="118" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
@@ -5047,16 +5047,16 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="123"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
@@ -5085,13 +5085,13 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="113" t="s">
+      <c r="H9" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="114"/>
+      <c r="I9" s="124"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="114" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -5107,12 +5107,12 @@
       <c r="G10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115" t="s">
         <v>48</v>
       </c>
       <c r="D11" t="s">
@@ -5123,66 +5123,66 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
+        <v>251</v>
+      </c>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="126"/>
-      <c r="C12" s="128"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+        <v>288</v>
+      </c>
+      <c r="H12" s="111"/>
+      <c r="I12" s="112"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="126"/>
-      <c r="C13" s="128"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="1"/>
       <c r="E13" s="36"/>
       <c r="F13" s="39"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="126"/>
-      <c r="C14" s="128"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="1"/>
       <c r="E14" s="36"/>
       <c r="F14" s="39"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="126"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+        <v>256</v>
+      </c>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="128"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="36" t="s">
         <v>229</v>
       </c>
@@ -5191,14 +5191,14 @@
         <v>64</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+        <v>262</v>
+      </c>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="126"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="36" t="s">
         <v>230</v>
       </c>
@@ -5207,14 +5207,14 @@
         <v>65</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+        <v>252</v>
+      </c>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B18" s="126"/>
-      <c r="C18" s="128"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="36" t="s">
         <v>54</v>
       </c>
@@ -5225,60 +5225,60 @@
       <c r="G18" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="126"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+        <v>253</v>
+      </c>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B20" s="126"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="112"/>
     </row>
     <row r="21" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B21" s="126"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B22" s="126"/>
-      <c r="C22" s="107" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="127" t="s">
         <v>216</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -5289,14 +5289,14 @@
         <v>67</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
+        <v>259</v>
+      </c>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
     </row>
     <row r="23" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B23" s="126"/>
-      <c r="C23" s="108"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="1" t="s">
         <v>217</v>
       </c>
@@ -5305,178 +5305,178 @@
         <v>182</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="120"/>
+        <v>254</v>
+      </c>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B24" s="126"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
+        <v>255</v>
+      </c>
+      <c r="H24" s="111"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B25" s="126"/>
-      <c r="C25" s="108"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G25" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B26" s="126"/>
-      <c r="C26" s="108"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="45" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
+        <v>257</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
     </row>
     <row r="27" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B27" s="126"/>
-      <c r="C27" s="108"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
+        <v>258</v>
+      </c>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="56"/>
     </row>
     <row r="28" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B28" s="126"/>
-      <c r="C28" s="108"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="36" t="s">
         <v>234</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
       <c r="J28" s="56"/>
     </row>
     <row r="29" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B29" s="126"/>
-      <c r="C29" s="108"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="36" t="s">
         <v>236</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+        <v>260</v>
+      </c>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="56"/>
     </row>
     <row r="30" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B30" s="126"/>
-      <c r="C30" s="108"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="36" t="s">
         <v>237</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+        <v>261</v>
+      </c>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="56"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B31" s="126"/>
-      <c r="C31" s="108"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G31" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
     </row>
     <row r="32" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B32" s="126"/>
-      <c r="C32" s="108"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="128"/>
       <c r="D32" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G32" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="120"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B33" s="126"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="45" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B34" s="126"/>
-      <c r="C34" s="118" t="s">
+      <c r="B34" s="114"/>
+      <c r="C34" s="110" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="36" t="s">
@@ -5489,13 +5489,13 @@
       <c r="G34" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B35" s="126"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="36" t="s">
         <v>220</v>
       </c>
@@ -5506,28 +5506,28 @@
       <c r="G35" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B36" s="126"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="36" t="s">
         <v>222</v>
       </c>
       <c r="E36" s="36"/>
-      <c r="F36" s="131" t="s">
+      <c r="F36" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="G36" s="132" t="s">
-        <v>287</v>
-      </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="120"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="112"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="126"/>
-      <c r="C37" s="118"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="42" t="s">
         <v>240</v>
       </c>
@@ -5536,14 +5536,14 @@
         <v>70</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
+        <v>263</v>
+      </c>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
     </row>
     <row r="38" spans="2:10" ht="19">
-      <c r="B38" s="126"/>
-      <c r="C38" s="118" t="s">
+      <c r="B38" s="114"/>
+      <c r="C38" s="110" t="s">
         <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -5556,28 +5556,28 @@
       <c r="G38" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="126"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="126"/>
-      <c r="C40" s="118" t="s">
+      <c r="B40" s="114"/>
+      <c r="C40" s="110" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -5590,12 +5590,12 @@
       <c r="G40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="126"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="1" t="s">
         <v>223</v>
       </c>
@@ -5604,46 +5604,46 @@
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
+        <v>264</v>
+      </c>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="126"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="126"/>
-      <c r="C43" s="118"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="126"/>
-      <c r="C44" s="118" t="s">
+      <c r="B44" s="114"/>
+      <c r="C44" s="110" t="s">
         <v>241</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -5656,12 +5656,12 @@
       <c r="G44" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="126"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="1" t="s">
         <v>244</v>
       </c>
@@ -5672,12 +5672,12 @@
       <c r="G45" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="126"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="1" t="s">
         <v>187</v>
       </c>
@@ -5688,24 +5688,24 @@
       <c r="G46" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="110"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="126"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
       <c r="J47" s="54"/>
     </row>
     <row r="56" spans="2:10" ht="27">
@@ -5823,6 +5823,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C22:C33"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B10:B47"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="H17:I17"/>
@@ -5839,43 +5876,6 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B10:B47"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C22:C33"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5888,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543C61E-955B-0B4C-B3DD-2FF9F318F9A2}">
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A13" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -5906,18 +5906,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5926,50 +5926,50 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="122"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="123"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="118" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
@@ -5978,16 +5978,16 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="123"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
@@ -6014,13 +6014,13 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="113" t="s">
+      <c r="H9" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="114"/>
+      <c r="I9" s="124"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="127" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -6036,12 +6036,12 @@
       <c r="G10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="108"/>
-      <c r="C11" s="118" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="110" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="36" t="s">
@@ -6054,12 +6054,12 @@
       <c r="G11" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="108"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="36" t="s">
         <v>85</v>
       </c>
@@ -6070,12 +6070,12 @@
       <c r="G12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="108"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="36" t="s">
         <v>86</v>
       </c>
@@ -6086,11 +6086,11 @@
       <c r="G13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="108"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="41" t="s">
         <v>90</v>
       </c>
@@ -6104,11 +6104,11 @@
       <c r="G14" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="108"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="41" t="s">
         <v>56</v>
       </c>
@@ -6122,12 +6122,12 @@
       <c r="G15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="108"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="128"/>
+      <c r="C16" s="127" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -6140,12 +6140,12 @@
       <c r="G16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="36" t="s">
         <v>100</v>
       </c>
@@ -6156,11 +6156,11 @@
       <c r="G17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B18" s="108"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="41" t="s">
         <v>201</v>
       </c>
@@ -6174,12 +6174,12 @@
       <c r="G18" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="108"/>
-      <c r="C19" s="107" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="127" t="s">
         <v>202</v>
       </c>
       <c r="D19" s="52" t="s">
@@ -6192,12 +6192,12 @@
       <c r="G19" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="52" t="s">
         <v>195</v>
       </c>
@@ -6208,12 +6208,12 @@
       <c r="G20" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="112"/>
     </row>
     <row r="21" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="46" t="s">
         <v>197</v>
       </c>
@@ -6224,12 +6224,12 @@
       <c r="G21" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B22" s="108"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="115" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="52" t="s">
@@ -6242,12 +6242,12 @@
       <c r="G22" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
     </row>
     <row r="23" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B23" s="108"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="52" t="s">
         <v>110</v>
       </c>
@@ -6258,11 +6258,11 @@
       <c r="G23" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
     </row>
     <row r="24" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B24" s="108"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="41" t="s">
         <v>115</v>
       </c>
@@ -6276,12 +6276,12 @@
       <c r="G24" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
     </row>
     <row r="25" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B25" s="108"/>
-      <c r="C25" s="118" t="s">
+      <c r="B25" s="128"/>
+      <c r="C25" s="110" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="52" t="s">
@@ -6294,12 +6294,12 @@
       <c r="G25" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
     </row>
     <row r="26" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B26" s="108"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="52" t="s">
         <v>129</v>
       </c>
@@ -6310,12 +6310,12 @@
       <c r="G26" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
     </row>
     <row r="27" spans="2:10" ht="19">
-      <c r="B27" s="108"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="1" t="s">
         <v>122</v>
       </c>
@@ -6326,12 +6326,12 @@
       <c r="G27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="118"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="108"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
@@ -6342,12 +6342,12 @@
       <c r="G28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="117"/>
-      <c r="I28" s="118"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="110"/>
     </row>
     <row r="29" spans="2:10" ht="19">
-      <c r="B29" s="108"/>
-      <c r="C29" s="130" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -6360,13 +6360,13 @@
       <c r="G29" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="118"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="2:10" ht="19">
-      <c r="B30" s="108"/>
-      <c r="C30" s="130"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="1" t="s">
         <v>136</v>
       </c>
@@ -6377,12 +6377,12 @@
       <c r="G30" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="118"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="110"/>
     </row>
     <row r="31" spans="2:10" ht="19">
-      <c r="B31" s="108"/>
-      <c r="C31" s="130"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="1" t="s">
         <v>137</v>
       </c>
@@ -6393,12 +6393,12 @@
       <c r="G31" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="117"/>
-      <c r="I31" s="118"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" spans="2:10" ht="19">
-      <c r="B32" s="108"/>
-      <c r="C32" s="130"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="1" t="s">
         <v>138</v>
       </c>
@@ -6409,12 +6409,12 @@
       <c r="G32" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="117"/>
-      <c r="I32" s="118"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
     </row>
     <row r="33" spans="2:11" ht="19">
-      <c r="B33" s="108"/>
-      <c r="C33" s="130"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="1" t="s">
         <v>191</v>
       </c>
@@ -6425,12 +6425,12 @@
       <c r="G33" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="2:11" ht="19">
-      <c r="B34" s="108"/>
-      <c r="C34" s="130"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
@@ -6439,14 +6439,14 @@
         <v>192</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="H34" s="117"/>
-      <c r="I34" s="118"/>
+        <v>287</v>
+      </c>
+      <c r="H34" s="109"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" spans="2:11" ht="19">
-      <c r="B35" s="108"/>
-      <c r="C35" s="130"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="1" t="s">
         <v>210</v>
       </c>
@@ -6457,12 +6457,12 @@
       <c r="G35" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="110"/>
     </row>
     <row r="36" spans="2:11" ht="19">
-      <c r="B36" s="108"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="1" t="s">
         <v>171</v>
       </c>
@@ -6473,12 +6473,12 @@
       <c r="G36" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="117"/>
-      <c r="I36" s="118"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
     </row>
     <row r="37" spans="2:11" ht="19">
-      <c r="B37" s="108"/>
-      <c r="C37" s="126" t="s">
+      <c r="B37" s="128"/>
+      <c r="C37" s="114" t="s">
         <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -6491,12 +6491,12 @@
       <c r="G37" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="117"/>
-      <c r="I37" s="118"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="2:11" ht="19">
-      <c r="B38" s="108"/>
-      <c r="C38" s="126"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="1" t="s">
         <v>146</v>
       </c>
@@ -6507,12 +6507,12 @@
       <c r="G38" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="118"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="108"/>
-      <c r="C39" s="126"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="1" t="s">
         <v>147</v>
       </c>
@@ -6523,12 +6523,12 @@
       <c r="G39" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="108"/>
-      <c r="C40" s="126"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="1" t="s">
         <v>148</v>
       </c>
@@ -6539,12 +6539,12 @@
       <c r="G40" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="108"/>
-      <c r="C41" s="126"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="1" t="s">
         <v>149</v>
       </c>
@@ -6555,12 +6555,12 @@
       <c r="G41" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="108"/>
-      <c r="C42" s="126"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="1" t="s">
         <v>150</v>
       </c>
@@ -6571,12 +6571,12 @@
       <c r="G42" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="108"/>
-      <c r="C43" s="126"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="1" t="s">
         <v>189</v>
       </c>
@@ -6587,12 +6587,12 @@
       <c r="G43" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="110"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="108"/>
-      <c r="C44" s="126"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
@@ -6603,13 +6603,13 @@
       <c r="G44" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="110"/>
       <c r="K44" s="55"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="108"/>
-      <c r="C45" s="126"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="1" t="s">
         <v>203</v>
       </c>
@@ -6620,13 +6620,13 @@
       <c r="G45" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
       <c r="K45" s="55"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="108"/>
-      <c r="C46" s="126"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="1" t="s">
         <v>207</v>
       </c>
@@ -6637,13 +6637,13 @@
       <c r="G46" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="110"/>
       <c r="K46" s="55"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="108"/>
-      <c r="C47" s="126"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="1" t="s">
         <v>158</v>
       </c>
@@ -6654,12 +6654,12 @@
       <c r="G47" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="110"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="109"/>
-      <c r="C48" s="126"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="1" t="s">
         <v>159</v>
       </c>
@@ -6670,11 +6670,50 @@
       <c r="G48" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="B10:B48"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="H20:I20"/>
@@ -6691,45 +6730,6 @@
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計/機能一覧/機能一覧ver1.1.xlsx
+++ b/設計/機能一覧/機能一覧ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/project_abroad/設計/機能一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202641AC-7089-344B-A672-E73F5BBF3243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFA2EC4-E225-2446-B078-584855F65ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="学生" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">管理者!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">管理者!$A$1:$I$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$A$1:$IV$2</definedName>
   </definedNames>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="289">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -2521,18 +2521,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2578,6 +2566,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,6 +2638,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2653,8 +2683,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2667,48 +2709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3024,7 +3024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -3466,16 +3466,16 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="86">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="85">
         <v>43732</v>
       </c>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="85"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="81"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="19"/>
     </row>
@@ -3644,18 +3644,18 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="63" t="s">
+      <c r="Y8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="63" t="s">
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="63" t="s">
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="65"/>
+      <c r="AD8" s="84"/>
       <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -3666,18 +3666,18 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="89"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
@@ -3685,40 +3685,40 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="97" t="s">
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" s="104"/>
+      <c r="AD9" s="103"/>
       <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="73" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -3726,32 +3726,32 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="106"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="105"/>
       <c r="AF10" s="19"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="74"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -3759,12 +3759,12 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="108"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="107"/>
       <c r="AF11" s="19"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -3983,18 +3983,18 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="18"/>
@@ -4019,16 +4019,16 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="18"/>
@@ -4053,16 +4053,16 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -4293,39 +4293,39 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="81">
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="77">
         <v>43732</v>
       </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="63" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="65"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="84"/>
       <c r="AC27" s="29" t="s">
         <v>248</v>
       </c>
@@ -4337,39 +4337,39 @@
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66">
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="108">
         <v>43738</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="63" t="s">
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="65"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="84"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="27" t="s">
         <v>248</v>
@@ -4379,33 +4379,33 @@
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="65"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="84"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="16"/>
@@ -4923,6 +4923,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:Q11"/>
     <mergeCell ref="L18:U20"/>
@@ -4938,12 +4944,6 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -4957,10 +4957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1E1009-A49B-6142-98B9-062C1FA10EE1}">
-  <dimension ref="B1:J69"/>
+  <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="137" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView zoomScale="81" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -4977,68 +4977,70 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="123" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="35" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="119"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="120"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="123" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
@@ -5047,16 +5049,16 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="120"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
@@ -5085,13 +5087,13 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="123" t="s">
+      <c r="H9" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="124"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="128" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -5107,12 +5109,12 @@
       <c r="G10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="129" t="s">
         <v>48</v>
       </c>
       <c r="D11" t="s">
@@ -5125,12 +5127,12 @@
       <c r="G11" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="114"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
@@ -5141,585 +5143,585 @@
       <c r="G12" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="H12" s="111"/>
-      <c r="I12" s="112"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="114"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
+      <c r="F13" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="114"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="36" t="s">
+        <v>229</v>
+      </c>
       <c r="E14" s="36"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
+      <c r="F14" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="114"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="1" t="s">
-        <v>227</v>
+      <c r="B15" s="128"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="39" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
+        <v>252</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="114"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="36" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
+        <v>215</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="114"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="36" t="s">
-        <v>230</v>
+      <c r="B17" s="128"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="39" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
+        <v>253</v>
+      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B18" s="114"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="36" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="39" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
+        <v>232</v>
+      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="114"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="57" t="s">
-        <v>231</v>
+      <c r="B19" s="128"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="39" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" s="111"/>
+        <v>55</v>
+      </c>
+      <c r="H19" s="112"/>
       <c r="I19" s="112"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="36" t="s">
-        <v>284</v>
+      <c r="B20" s="128"/>
+      <c r="C20" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="39" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="111"/>
+        <v>259</v>
+      </c>
+      <c r="H20" s="112"/>
       <c r="I20" s="112"/>
     </row>
     <row r="21" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="36"/>
+        <v>217</v>
+      </c>
+      <c r="E21" s="58"/>
       <c r="F21" s="39" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
+        <v>254</v>
+      </c>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B22" s="114"/>
-      <c r="C22" s="127" t="s">
-        <v>216</v>
-      </c>
+      <c r="B22" s="128"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="39" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
+        <v>255</v>
+      </c>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
     </row>
     <row r="23" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B23" s="114"/>
-      <c r="C23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
+        <v>185</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B24" s="114"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="1" t="s">
-        <v>233</v>
+      <c r="B24" s="128"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="45" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="111"/>
+      <c r="F24" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="112"/>
       <c r="I24" s="112"/>
     </row>
     <row r="25" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B25" s="114"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="1" t="s">
-        <v>185</v>
+      <c r="B25" s="128"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="36"/>
-      <c r="F25" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
+      <c r="F25" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B26" s="114"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="45" t="s">
-        <v>59</v>
+      <c r="B26" s="128"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="43" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
+        <v>235</v>
+      </c>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B27" s="114"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="45" t="s">
-        <v>60</v>
+      <c r="B27" s="128"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="43" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
+        <v>260</v>
+      </c>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
       <c r="J27" s="56"/>
     </row>
     <row r="28" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="43" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
+        <v>261</v>
+      </c>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
       <c r="J28" s="56"/>
     </row>
     <row r="29" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B29" s="114"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="36" t="s">
-        <v>236</v>
+      <c r="B29" s="128"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E29" s="36"/>
-      <c r="F29" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="H29" s="111"/>
+      <c r="F29" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="112"/>
       <c r="I29" s="112"/>
-      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B30" s="114"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="36" t="s">
-        <v>237</v>
+      <c r="B30" s="128"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E30" s="36"/>
-      <c r="F30" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="56"/>
+      <c r="F30" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B31" s="114"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
+      <c r="B31" s="128"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="E31" s="36"/>
-      <c r="F31" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>69</v>
+      <c r="F31" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
+      <c r="I31" s="114"/>
     </row>
     <row r="32" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B32" s="114"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="1" t="s">
-        <v>238</v>
+      <c r="B32" s="128"/>
+      <c r="C32" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="E32" s="36"/>
-      <c r="F32" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" s="111"/>
+      <c r="F32" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="112"/>
       <c r="I32" s="112"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B33" s="114"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="45" t="s">
-        <v>61</v>
+      <c r="B33" s="128"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="43" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
+        <v>221</v>
+      </c>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
     </row>
     <row r="34" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B34" s="114"/>
-      <c r="C34" s="110" t="s">
-        <v>63</v>
-      </c>
+      <c r="B34" s="128"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="36" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E34" s="36"/>
-      <c r="F34" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="54"/>
-    </row>
-    <row r="35" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B35" s="114"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="36" t="s">
-        <v>220</v>
+      <c r="F34" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="128"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="42" t="s">
+        <v>240</v>
       </c>
       <c r="E35" s="36"/>
-      <c r="F35" s="43" t="s">
-        <v>33</v>
+      <c r="F35" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-    </row>
-    <row r="36" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B36" s="114"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="36" t="s">
-        <v>222</v>
+        <v>263</v>
+      </c>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+    </row>
+    <row r="36" spans="2:10" ht="19">
+      <c r="B36" s="128"/>
+      <c r="C36" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E36" s="36"/>
-      <c r="F36" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="H36" s="111"/>
+      <c r="F36" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="112"/>
       <c r="I36" s="112"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="114"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="42" t="s">
-        <v>240</v>
+      <c r="B37" s="128"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-    </row>
-    <row r="38" spans="2:10" ht="19">
-      <c r="B38" s="114"/>
-      <c r="C38" s="110" t="s">
-        <v>120</v>
+        <v>280</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="119"/>
+      <c r="I37" s="120"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="128"/>
+      <c r="C38" s="120" t="s">
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="E38" s="36"/>
-      <c r="F38" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
+      <c r="F38" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="114"/>
-      <c r="C39" s="110"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="120"/>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
+        <v>264</v>
+      </c>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="114"/>
-      <c r="C40" s="110" t="s">
-        <v>71</v>
-      </c>
+      <c r="B40" s="128"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="36" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
+        <v>225</v>
+      </c>
+      <c r="H40" s="119"/>
+      <c r="I40" s="120"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="114"/>
-      <c r="C41" s="110"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="1" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
+        <v>226</v>
+      </c>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="114"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="120" t="s">
+        <v>241</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="E42" s="36"/>
-      <c r="F42" s="36" t="s">
-        <v>281</v>
+      <c r="F42" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H42" s="109"/>
-      <c r="I42" s="110"/>
+        <v>242</v>
+      </c>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="114"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="120"/>
       <c r="D43" s="1" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E43" s="36"/>
-      <c r="F43" s="36" t="s">
-        <v>282</v>
+      <c r="F43" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+        <v>245</v>
+      </c>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="114"/>
-      <c r="C44" s="110" t="s">
-        <v>241</v>
-      </c>
+      <c r="B44" s="128"/>
+      <c r="C44" s="120"/>
       <c r="D44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
+        <v>243</v>
+      </c>
+      <c r="H44" s="119"/>
+      <c r="I44" s="120"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="114"/>
-      <c r="C45" s="110"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E45" s="36"/>
-      <c r="F45" s="1" t="s">
-        <v>75</v>
+      <c r="F45" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="110"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="114"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="110"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="114"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="G47" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="54"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="54"/>
+    </row>
+    <row r="54" spans="2:10" ht="27">
+      <c r="B54" s="49"/>
+      <c r="J54" s="49"/>
+    </row>
+    <row r="55" spans="2:10" ht="27">
+      <c r="B55" s="49"/>
     </row>
     <row r="56" spans="2:10" ht="27">
       <c r="B56" s="49"/>
-      <c r="J56" s="49"/>
     </row>
     <row r="57" spans="2:10" ht="27">
       <c r="B57" s="49"/>
     </row>
     <row r="58" spans="2:10" ht="27">
       <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
     </row>
     <row r="59" spans="2:10" ht="27">
       <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
     </row>
     <row r="60" spans="2:10" ht="27">
       <c r="B60" s="49"/>
@@ -5741,15 +5743,15 @@
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
     </row>
-    <row r="62" spans="2:10" ht="27">
+    <row r="62" spans="2:10" ht="20" customHeight="1">
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
     </row>
     <row r="63" spans="2:10" ht="27">
       <c r="B63" s="49"/>
@@ -5761,35 +5763,35 @@
       <c r="H63" s="49"/>
       <c r="I63" s="49"/>
     </row>
-    <row r="64" spans="2:10" ht="20" customHeight="1">
+    <row r="64" spans="2:10" ht="27">
       <c r="B64" s="49"/>
       <c r="C64" s="49"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
     </row>
     <row r="65" spans="2:9" ht="27">
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
     </row>
     <row r="66" spans="2:9" ht="27">
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
     </row>
     <row r="67" spans="2:9" ht="27">
       <c r="B67" s="48"/>
@@ -5801,42 +5803,40 @@
       <c r="H67" s="48"/>
       <c r="I67" s="48"/>
     </row>
-    <row r="68" spans="2:9" ht="27">
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-    </row>
-    <row r="69" spans="2:9" ht="27">
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="C22:C33"/>
+  <mergeCells count="51">
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B10:B45"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -5844,38 +5844,18 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B10:B47"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5888,7 +5868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543C61E-955B-0B4C-B3DD-2FF9F318F9A2}">
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5906,18 +5886,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="123" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5926,50 +5906,50 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B3" s="119"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B4" s="120"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
       <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="123" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
@@ -5978,16 +5958,16 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B6" s="120"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
@@ -6014,13 +5994,13 @@
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="123" t="s">
+      <c r="H9" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="124"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="109" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -6036,12 +6016,12 @@
       <c r="G10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
     </row>
     <row r="11" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="110" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="120" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="36" t="s">
@@ -6054,12 +6034,12 @@
       <c r="G11" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="36" t="s">
         <v>85</v>
       </c>
@@ -6070,12 +6050,12 @@
       <c r="G12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="36" t="s">
         <v>86</v>
       </c>
@@ -6086,11 +6066,11 @@
       <c r="G13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B14" s="128"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="41" t="s">
         <v>90</v>
       </c>
@@ -6104,11 +6084,11 @@
       <c r="G14" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B15" s="128"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="41" t="s">
         <v>56</v>
       </c>
@@ -6122,12 +6102,12 @@
       <c r="G15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B16" s="128"/>
-      <c r="C16" s="127" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="109" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -6140,12 +6120,12 @@
       <c r="G16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
     </row>
     <row r="17" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="36" t="s">
         <v>100</v>
       </c>
@@ -6156,11 +6136,11 @@
       <c r="G17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B18" s="128"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="41" t="s">
         <v>201</v>
       </c>
@@ -6174,12 +6154,12 @@
       <c r="G18" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
     </row>
     <row r="19" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="127" t="s">
+      <c r="B19" s="110"/>
+      <c r="C19" s="109" t="s">
         <v>202</v>
       </c>
       <c r="D19" s="52" t="s">
@@ -6192,12 +6172,12 @@
       <c r="G19" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
     </row>
     <row r="20" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="52" t="s">
         <v>195</v>
       </c>
@@ -6208,12 +6188,12 @@
       <c r="G20" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="46" t="s">
         <v>197</v>
       </c>
@@ -6224,12 +6204,12 @@
       <c r="G21" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B22" s="128"/>
-      <c r="C22" s="115" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="129" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="52" t="s">
@@ -6242,12 +6222,12 @@
       <c r="G22" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
     </row>
     <row r="23" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B23" s="128"/>
-      <c r="C23" s="117"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="52" t="s">
         <v>110</v>
       </c>
@@ -6258,11 +6238,11 @@
       <c r="G23" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B24" s="128"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="41" t="s">
         <v>115</v>
       </c>
@@ -6276,12 +6256,12 @@
       <c r="G24" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B25" s="128"/>
-      <c r="C25" s="110" t="s">
+      <c r="B25" s="110"/>
+      <c r="C25" s="120" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="52" t="s">
@@ -6294,12 +6274,12 @@
       <c r="G25" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="52" t="s">
         <v>129</v>
       </c>
@@ -6310,12 +6290,12 @@
       <c r="G26" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
     </row>
     <row r="27" spans="2:10" ht="19">
-      <c r="B27" s="128"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="1" t="s">
         <v>122</v>
       </c>
@@ -6326,12 +6306,12 @@
       <c r="G27" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="128"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
@@ -6342,11 +6322,11 @@
       <c r="G28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="2:10" ht="19">
-      <c r="B29" s="128"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="132" t="s">
         <v>58</v>
       </c>
@@ -6360,12 +6340,12 @@
       <c r="G29" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="110"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
       <c r="J29" s="54"/>
     </row>
     <row r="30" spans="2:10" ht="19">
-      <c r="B30" s="128"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="132"/>
       <c r="D30" s="1" t="s">
         <v>136</v>
@@ -6377,11 +6357,11 @@
       <c r="G30" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="109"/>
-      <c r="I30" s="110"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="19">
-      <c r="B31" s="128"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="132"/>
       <c r="D31" s="1" t="s">
         <v>137</v>
@@ -6393,11 +6373,11 @@
       <c r="G31" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="109"/>
-      <c r="I31" s="110"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="19">
-      <c r="B32" s="128"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="132"/>
       <c r="D32" s="1" t="s">
         <v>138</v>
@@ -6409,11 +6389,11 @@
       <c r="G32" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="109"/>
-      <c r="I32" s="110"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="2:11" ht="19">
-      <c r="B33" s="128"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="132"/>
       <c r="D33" s="1" t="s">
         <v>191</v>
@@ -6425,11 +6405,11 @@
       <c r="G33" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="110"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="2:11" ht="19">
-      <c r="B34" s="128"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="132"/>
       <c r="D34" s="1" t="s">
         <v>139</v>
@@ -6441,11 +6421,11 @@
       <c r="G34" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="H34" s="109"/>
-      <c r="I34" s="110"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="2:11" ht="19">
-      <c r="B35" s="128"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="132"/>
       <c r="D35" s="1" t="s">
         <v>210</v>
@@ -6457,11 +6437,11 @@
       <c r="G35" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="110"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" spans="2:11" ht="19">
-      <c r="B36" s="128"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="132"/>
       <c r="D36" s="1" t="s">
         <v>171</v>
@@ -6473,12 +6453,12 @@
       <c r="G36" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="109"/>
-      <c r="I36" s="110"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="120"/>
     </row>
     <row r="37" spans="2:11" ht="19">
-      <c r="B37" s="128"/>
-      <c r="C37" s="114" t="s">
+      <c r="B37" s="110"/>
+      <c r="C37" s="128" t="s">
         <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -6491,12 +6471,12 @@
       <c r="G37" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="110"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="120"/>
     </row>
     <row r="38" spans="2:11" ht="19">
-      <c r="B38" s="128"/>
-      <c r="C38" s="114"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="1" t="s">
         <v>146</v>
       </c>
@@ -6507,12 +6487,12 @@
       <c r="G38" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="109"/>
-      <c r="I38" s="110"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="120"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="128"/>
-      <c r="C39" s="114"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="1" t="s">
         <v>147</v>
       </c>
@@ -6523,12 +6503,12 @@
       <c r="G39" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="128"/>
-      <c r="C40" s="114"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="1" t="s">
         <v>148</v>
       </c>
@@ -6539,12 +6519,12 @@
       <c r="G40" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="109"/>
-      <c r="I40" s="110"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="120"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="128"/>
-      <c r="C41" s="114"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="1" t="s">
         <v>149</v>
       </c>
@@ -6555,12 +6535,12 @@
       <c r="G41" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H41" s="109"/>
-      <c r="I41" s="110"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="120"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="128"/>
-      <c r="C42" s="114"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="128"/>
       <c r="D42" s="1" t="s">
         <v>150</v>
       </c>
@@ -6571,12 +6551,12 @@
       <c r="G42" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="109"/>
-      <c r="I42" s="110"/>
+      <c r="H42" s="119"/>
+      <c r="I42" s="120"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="128"/>
-      <c r="C43" s="114"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="128"/>
       <c r="D43" s="1" t="s">
         <v>189</v>
       </c>
@@ -6587,12 +6567,12 @@
       <c r="G43" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="H43" s="109"/>
-      <c r="I43" s="110"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="128"/>
-      <c r="C44" s="114"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="128"/>
       <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
@@ -6603,13 +6583,13 @@
       <c r="G44" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="110"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="120"/>
       <c r="K44" s="55"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="128"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="1" t="s">
         <v>203</v>
       </c>
@@ -6620,13 +6600,13 @@
       <c r="G45" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="110"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="120"/>
       <c r="K45" s="55"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="128"/>
-      <c r="C46" s="114"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="1" t="s">
         <v>207</v>
       </c>
@@ -6637,13 +6617,13 @@
       <c r="G46" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="110"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="120"/>
       <c r="K46" s="55"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="128"/>
-      <c r="C47" s="114"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="1" t="s">
         <v>158</v>
       </c>
@@ -6654,12 +6634,12 @@
       <c r="G47" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="110"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="120"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="129"/>
-      <c r="C48" s="114"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="128"/>
       <c r="D48" s="1" t="s">
         <v>159</v>
       </c>
@@ -6670,18 +6650,43 @@
       <c r="G48" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="H48" s="109"/>
-      <c r="I48" s="110"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B10:B48"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
@@ -6698,38 +6703,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B10:B48"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
